--- a/Aluminium.xlsx
+++ b/Aluminium.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ba650176d78d5c06/Documents/GitHub/Data Extract from Web/dataextract/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SBTi\github\pathway-database\pathway-database\pathway-explorer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC200DDA-3842-4EBD-AA12-6FD04F71C522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6988C470-F4AF-46FE-B5F3-B00285F67B42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A6C1760C-C803-46BD-BF3D-5EE6D31952B6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{A6C1760C-C803-46BD-BF3D-5EE6D31952B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -189,9 +189,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -229,7 +229,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -335,7 +335,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -477,7 +477,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -488,7 +488,7 @@
   <dimension ref="A1:AY5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:AY5"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Aluminium.xlsx
+++ b/Aluminium.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SBTi\github\pathway-database\pathway-database\pathway-explorer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B67B88F5-70E8-46E3-AAB8-C407DEB5CD5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE9A0D2-4DE1-494C-AC9C-D80601B48549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{A6C1760C-C803-46BD-BF3D-5EE6D31952B6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{A6C1760C-C803-46BD-BF3D-5EE6D31952B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>Scenario</t>
   </si>
@@ -70,13 +71,31 @@
   </si>
   <si>
     <t>Metric</t>
+  </si>
+  <si>
+    <t>Aluminum production accounts for nearly 2% of global energy-related CO₂ emissions, driven by its highly energy-intensive smelting process and reliance on fossil-based electricity. While efforts like inert anode technology, energy efficiency, and scrap recycling are reducing emissions, progress remains limited. Emissions are currently declining at less than 1% per year. Rapid decarbonization of electricity grids and wider adoption of low-carbon smelting technologies are critical to unlocking deep cuts in this sector.</t>
+  </si>
+  <si>
+    <t>Impact and Outcome Metrics</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>IEA, 2023</t>
+  </si>
+  <si>
+    <t>Share of near zero emission primary aluminum production</t>
+  </si>
+  <si>
+    <t>Share of low-emissions thermal energy in alumina production</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,8 +124,52 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Seaford"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Seaford"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Seaford"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Seaford"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Seaford"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Seaford"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Seaford"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -119,8 +182,14 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -143,11 +212,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -165,9 +255,53 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="8" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -481,7 +615,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F241EEED-0935-483B-A458-1771E5734179}">
   <dimension ref="A1:AX5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
@@ -1250,4 +1384,228 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C107A2FF-5D29-47E9-A4D2-8FD1A323029C}">
+  <dimension ref="A1:N11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="88.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+    </row>
+    <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="11">
+        <v>2022</v>
+      </c>
+      <c r="C2" s="11">
+        <v>2030</v>
+      </c>
+      <c r="D2" s="11">
+        <v>2035</v>
+      </c>
+      <c r="E2" s="12">
+        <v>2040</v>
+      </c>
+      <c r="F2" s="11">
+        <v>2050</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+    </row>
+    <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="15">
+        <v>0</v>
+      </c>
+      <c r="C3" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D3" s="15">
+        <v>0.19</v>
+      </c>
+      <c r="E3" s="15">
+        <f>AVERAGE(D3,F3)</f>
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="F3" s="15">
+        <v>0.96</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+    </row>
+    <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="25">
+        <v>0</v>
+      </c>
+      <c r="C4" s="23">
+        <v>0.16</v>
+      </c>
+      <c r="D4" s="23">
+        <v>0.39</v>
+      </c>
+      <c r="E4" s="23">
+        <f>AVERAGE(D4,F4)</f>
+        <v>0.69</v>
+      </c>
+      <c r="F4" s="23">
+        <v>0.99</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+    </row>
+    <row r="5" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+    </row>
+    <row r="6" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="14"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+    </row>
+    <row r="7" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="21"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+    </row>
+    <row r="8" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="27"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="27"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="27"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:L1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Aluminium.xlsx
+++ b/Aluminium.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SBTi\github\pathway-database\pathway-database\pathway-explorer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE9A0D2-4DE1-494C-AC9C-D80601B48549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E1A44C-A885-4EFE-BFF5-7D6B27F35841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{A6C1760C-C803-46BD-BF3D-5EE6D31952B6}"/>
   </bookViews>
@@ -73,9 +73,6 @@
     <t>Metric</t>
   </si>
   <si>
-    <t>Aluminum production accounts for nearly 2% of global energy-related CO₂ emissions, driven by its highly energy-intensive smelting process and reliance on fossil-based electricity. While efforts like inert anode technology, energy efficiency, and scrap recycling are reducing emissions, progress remains limited. Emissions are currently declining at less than 1% per year. Rapid decarbonization of electricity grids and wider adoption of low-carbon smelting technologies are critical to unlocking deep cuts in this sector.</t>
-  </si>
-  <si>
     <t>Impact and Outcome Metrics</t>
   </si>
   <si>
@@ -89,6 +86,9 @@
   </si>
   <si>
     <t>Share of low-emissions thermal energy in alumina production</t>
+  </si>
+  <si>
+    <t>Aluminum production accounts for nearly 2% of global energy-related CO₂ emissions, driven by its highly energy-intensive smelting process and reliance on fossil-based electricity. While efforts like inert anode technology, energy efficiency, and scrap recycling are reducing emissions, progress remains limited. Emissions are currently declining at less than 1% per year, far below the 5–6% annual cuts needed to align with the Net Zero by 2050 scenario. Rapid decarbonization of electricity grids and wider adoption of low-carbon smelting technologies are critical to unlocking deep cuts in this sector.</t>
   </si>
 </sst>
 </file>
@@ -255,9 +255,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -298,6 +295,9 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1391,7 +1391,7 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1399,208 +1399,208 @@
     <col min="1" max="1" width="88.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
+    <row r="1" spans="1:14" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="10">
+        <v>2022</v>
+      </c>
+      <c r="C2" s="10">
+        <v>2030</v>
+      </c>
+      <c r="D2" s="10">
+        <v>2035</v>
+      </c>
+      <c r="E2" s="11">
+        <v>2040</v>
+      </c>
+      <c r="F2" s="10">
+        <v>2050</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="11">
-        <v>2022</v>
-      </c>
-      <c r="C2" s="11">
-        <v>2030</v>
-      </c>
-      <c r="D2" s="11">
-        <v>2035</v>
-      </c>
-      <c r="E2" s="12">
-        <v>2040</v>
-      </c>
-      <c r="F2" s="11">
-        <v>2050</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="15">
+      <c r="A3" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="14">
         <v>0</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="14">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="14">
         <v>0.19</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="14">
         <f>AVERAGE(D3,F3)</f>
         <v>0.57499999999999996</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="14">
         <v>0.96</v>
       </c>
-      <c r="G3" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
+      <c r="G3" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="25">
+      <c r="A4" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="24">
         <v>0</v>
       </c>
-      <c r="C4" s="23">
+      <c r="C4" s="22">
         <v>0.16</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4" s="22">
         <v>0.39</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="22">
         <f>AVERAGE(D4,F4)</f>
         <v>0.69</v>
       </c>
-      <c r="F4" s="23">
+      <c r="F4" s="22">
         <v>0.99</v>
       </c>
-      <c r="G4" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
+      <c r="G4" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
     </row>
     <row r="5" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
     </row>
     <row r="6" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="21"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27"/>
+      <c r="A7" s="20"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
     </row>
     <row r="8" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="27"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="27"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="27"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
+      <c r="A10" s="26"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="27"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
+      <c r="A11" s="26"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Aluminium.xlsx
+++ b/Aluminium.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SBTi\github\pathway-database\pathway-database\pathway-explorer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E1A44C-A885-4EFE-BFF5-7D6B27F35841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{136457C8-DF6D-4184-835F-FB3465124255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{A6C1760C-C803-46BD-BF3D-5EE6D31952B6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{A6C1760C-C803-46BD-BF3D-5EE6D31952B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -43,9 +43,6 @@
     <t>Unit</t>
   </si>
   <si>
-    <t>ETP B2DS</t>
-  </si>
-  <si>
     <t>MtCO2</t>
   </si>
   <si>
@@ -89,6 +86,9 @@
   </si>
   <si>
     <t>Aluminum production accounts for nearly 2% of global energy-related CO₂ emissions, driven by its highly energy-intensive smelting process and reliance on fossil-based electricity. While efforts like inert anode technology, energy efficiency, and scrap recycling are reducing emissions, progress remains limited. Emissions are currently declining at less than 1% per year, far below the 5–6% annual cuts needed to align with the Net Zero by 2050 scenario. Rapid decarbonization of electricity grids and wider adoption of low-carbon smelting technologies are critical to unlocking deep cuts in this sector.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SBTi pathway (ETP B2DS) </t>
   </si>
 </sst>
 </file>
@@ -615,11 +615,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F241EEED-0935-483B-A458-1771E5734179}">
   <dimension ref="A1:AX5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -629,7 +632,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D1" s="2">
         <v>2014</v>
@@ -775,13 +778,13 @@
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>4</v>
       </c>
       <c r="D2" s="5">
         <v>260.64999999999998</v>
@@ -927,13 +930,13 @@
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>6</v>
       </c>
       <c r="D3" s="6">
         <v>3336.95</v>
@@ -1079,13 +1082,13 @@
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>7</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>8</v>
       </c>
       <c r="D4" s="6">
         <v>126290134.29000001</v>
@@ -1231,13 +1234,13 @@
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>9</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>10</v>
       </c>
       <c r="D5" s="8">
         <v>2.0638983517229417E-6</v>
@@ -1390,7 +1393,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C107A2FF-5D29-47E9-A4D2-8FD1A323029C}">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -1401,7 +1404,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
@@ -1419,7 +1422,7 @@
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="10">
         <v>2022</v>
@@ -1437,7 +1440,7 @@
         <v>2050</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H2" s="26"/>
       <c r="I2" s="26"/>
@@ -1449,7 +1452,7 @@
     </row>
     <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="14">
         <v>0</v>
@@ -1468,7 +1471,7 @@
         <v>0.96</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H3" s="26"/>
       <c r="I3" s="26"/>
@@ -1480,7 +1483,7 @@
     </row>
     <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="24">
         <v>0</v>
@@ -1499,7 +1502,7 @@
         <v>0.99</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H4" s="26"/>
       <c r="I4" s="26"/>
